--- a/thresholds.xlsx
+++ b/thresholds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yan-l\source\repos\Bachelor thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216ACD72-1007-4FDA-9844-46BEB44FA945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70524F10-7DE2-4A35-99FA-F59BB5BD259D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07361475-55FF-44F5-80E0-7C94696BE762}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>N</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>K_tilde_sp</t>
-  </si>
-  <si>
-    <t>ssh pytharski</t>
   </si>
 </sst>
 </file>
@@ -113,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -124,6 +121,8 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,17 +437,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7842BAC0-879F-4D91-821E-EB1A81A8D002}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
@@ -1298,9 +1297,6 @@
         <f t="shared" si="10"/>
         <v>1.8541191653695785</v>
       </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
       <c r="H16" s="9">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1598,7 +1594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>500</v>
       </c>
@@ -1609,6 +1605,142 @@
       <c r="E33">
         <f t="shared" si="20"/>
         <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>700</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:D43" si="21">_xlfn.FLOOR.MATH(SQRT(C37/EXP(1)))</f>
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="G37" s="10">
+        <f>C37^(F37 * LOG(C37,2))</f>
+        <v>4455.7594198229463</v>
+      </c>
+      <c r="I37" s="11">
+        <v>9494.125</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>800</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="21"/>
+        <v>17</v>
+      </c>
+      <c r="F38">
+        <f>F37</f>
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" ref="G38:G43" si="22">C38^(F38 * LOG(C38,2))</f>
+        <v>6297.8237680150187</v>
+      </c>
+      <c r="I38" s="11">
+        <v>17286.25</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>900</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="21"/>
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39:F43" si="23">F38</f>
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="22"/>
+        <v>8595.1546478755718</v>
+      </c>
+      <c r="I39">
+        <v>6924</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>1000</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="21"/>
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="23"/>
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="22"/>
+        <v>11404.356431668186</v>
+      </c>
+      <c r="I40" s="11">
+        <v>15741.125</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>2000</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="23"/>
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="G41" s="10">
+        <f t="shared" si="22"/>
+        <v>81680.907207847456</v>
+      </c>
+      <c r="I41">
+        <v>81806</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>3000</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="21"/>
+        <v>33</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="23"/>
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="G42" s="10">
+        <f t="shared" si="22"/>
+        <v>281946.17619221011</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>4000</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="21"/>
+        <v>38</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="23"/>
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="G43" s="10">
+        <f t="shared" si="22"/>
+        <v>706105.93836006708</v>
       </c>
     </row>
   </sheetData>
